--- a/APQ.xlsx
+++ b/APQ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/13cc82aea0c0db78/Tagatame/Repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{0A3B67A9-45A8-4275-A672-4A712D82CC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9A517C9C-838C-406D-B400-3EC2EC6246EA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{0A3B67A9-45A8-4275-A672-4A712D82CC89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E03601AF-7F7C-44FF-B3A7-BC7441AEFF85}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="12050" xr2:uid="{686B8476-5355-437A-8106-08758FD96DB9}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -276,6 +276,48 @@
   </si>
   <si>
     <t>種族</t>
+  </si>
+  <si>
+    <t>鏡餅ラットン</t>
+  </si>
+  <si>
+    <t>光</t>
+  </si>
+  <si>
+    <t>初春</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[自動]詠唱速度+50%
+[自動]斬擊/打擊/魔法以外完全回避
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[反應]被打擊類攻擊後，1回合打擊耐性+20%，斬擊/魔法耐性-30%，最多疊10回</t>
+    </r>
+  </si>
+  <si>
+    <t>オーク・ディザスター</t>
+  </si>
+  <si>
+    <t>オーク</t>
+  </si>
+  <si>
+    <t>亞人</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>[主動]異常狀態特效
+[主動]殺小怪吸能力</t>
   </si>
 </sst>
 </file>
@@ -424,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -508,13 +550,21 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -776,6 +826,241 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="138989" y="2011680"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>14630</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365760" cy="365760"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710F1D86-C84D-4858-B340-616898899DE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138989" y="197510"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365760" cy="365760"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E91E85D-BC72-4AF5-8911-CA3F7801A798}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138989" y="548640"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="365760" cy="365760"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D970EC3C-C0A5-43A5-8DF1-18C900D948CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138989" y="1463040"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>365760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5D8D206-D7BE-4E30-ABB3-C00915A2A639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138989" y="3474720"/>
+          <a:ext cx="365760" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6BCC21F-0D27-4F97-BF21-67D698E77E3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="138989" y="4754880"/>
           <a:ext cx="365760" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1088,29 +1373,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N13" sqref="A8:N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.8984375" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="8" customWidth="1"/>
-    <col min="6" max="7" width="9.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="8" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="13" customWidth="1"/>
-    <col min="13" max="13" width="78.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.796875" style="2"/>
+    <col min="6" max="8" width="9.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="8" customWidth="1"/>
+    <col min="11" max="12" width="9.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="9.5" style="13" customWidth="1"/>
+    <col min="14" max="14" width="78.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="19" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1124,24 +1410,25 @@
       </c>
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="L1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1158,26 +1445,26 @@
       <c r="G2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="21" t="s">
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1197,26 +1484,26 @@
       <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1236,26 +1523,26 @@
       <c r="G4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="K4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="4" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1272,26 +1559,26 @@
       <c r="G5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="11" t="s">
+      <c r="L5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" s="4" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>5</v>
       </c>
@@ -1305,49 +1592,280 @@
       <c r="E6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="J6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="24" t="s">
-        <v>10</v>
-      </c>
       <c r="K6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="27" t="s">
+      <c r="L6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M6" s="28" t="s">
+      <c r="N6" s="28" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="18"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>5</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" ht="28.8" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <conditionalFormatting sqref="I2:L22">
+  <conditionalFormatting sqref="J2:M7 J14:M23">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="notEqual">
+      <formula>"No"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9:M13">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
       <formula>"No"</formula>
     </cfRule>
